--- a/List_of_variables.xlsx
+++ b/List_of_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Plan\Road_to_Swedbank\Credit_risk_modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{802B2054-B67A-44B5-97F7-7A1A2B01E1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E21FC1-A72D-46D3-811E-3CA8AE106680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="2664" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,45 +38,12 @@
     <t>'grade:A', 'grade:B', 'grade:C',</t>
   </si>
   <si>
-    <t xml:space="preserve">       'grade:D', 'grade:E', 'grade:F', 'grade:G',</t>
-  </si>
-  <si>
-    <t>home_ownership:RENT_OTHER_NONE_ANY',</t>
-  </si>
-  <si>
     <t xml:space="preserve">'home_ownership:MORTGAGE', </t>
   </si>
   <si>
     <t>'home_ownership:OWN',</t>
   </si>
   <si>
-    <t>addr_state:FL',</t>
-  </si>
-  <si>
-    <t>addr_state:NY',</t>
-  </si>
-  <si>
-    <t>addr_state:MO_NC_MD_IN_AK_NE_NJ',</t>
-  </si>
-  <si>
-    <t>addr_state:CA',</t>
-  </si>
-  <si>
-    <t>'addr_state:MI_PA_MN_TN_VA_HI'</t>
-  </si>
-  <si>
-    <t>addr_state:TX',</t>
-  </si>
-  <si>
-    <t>'addr_state:OH_WI_AZ_MA_UT_DE'</t>
-  </si>
-  <si>
-    <t>'addr_state:GA_IL_WY_RI'</t>
-  </si>
-  <si>
-    <t>'addr_state:MT_WA_SC_OR_ND_KS_CT_CO_NH_WV_DC_VT_ID_ME'</t>
-  </si>
-  <si>
     <t>'verification_status:Verified',</t>
   </si>
   <si>
@@ -86,18 +53,9 @@
     <t>'verification_status:Not Verified',</t>
   </si>
   <si>
-    <t>purpose:educ__ren_en__sm_b__mov',</t>
-  </si>
-  <si>
     <t>'purpose:debt_consolidation',</t>
   </si>
   <si>
-    <t>purpose:med__oth__house__wedd',</t>
-  </si>
-  <si>
-    <t>purpose:major_purch__vacation__home_impr__car',</t>
-  </si>
-  <si>
     <t>'purpose:credit_card',</t>
   </si>
   <si>
@@ -107,241 +65,283 @@
     <t>'initial_list_status:w',</t>
   </si>
   <si>
-    <t>term:60',</t>
-  </si>
-  <si>
-    <t>addr_state:LA_AR_AL_MS_OK_NM_SD_NV_IA',</t>
-  </si>
-  <si>
-    <t>term:36',</t>
-  </si>
-  <si>
-    <t>emp_length:0',</t>
-  </si>
-  <si>
-    <t>emp_length:1',</t>
-  </si>
-  <si>
-    <t>emp_length:2-6',</t>
-  </si>
-  <si>
-    <t>emp_length:7-9',</t>
-  </si>
-  <si>
-    <t>emp_length:10',</t>
-  </si>
-  <si>
-    <t>mths_since_issue_d:&lt;30',</t>
-  </si>
-  <si>
-    <t>mths_since_issue_d:30-33',</t>
-  </si>
-  <si>
-    <t>mths_since_issue_d:33-40',</t>
-  </si>
-  <si>
-    <t>mths_since_issue_d:41-46',</t>
-  </si>
-  <si>
-    <t>mths_since_issue_d:46-52',</t>
-  </si>
-  <si>
-    <t>mths_since_issue_d:53-64',</t>
-  </si>
-  <si>
-    <t>mths_since_issue_d:65-84',</t>
-  </si>
-  <si>
-    <t>'mths_since_issue_d:&gt;84'</t>
-  </si>
-  <si>
-    <t>int_rate:&lt;8.392',</t>
-  </si>
-  <si>
-    <t>int_rate:8.392-11.987',</t>
-  </si>
-  <si>
-    <t>int_rate:11.987-15.582',</t>
-  </si>
-  <si>
-    <t>int_rate:15.582-19.177',</t>
-  </si>
-  <si>
-    <t>int_rate:&gt;19.177',</t>
-  </si>
-  <si>
-    <t>mths_since_earliest_cr_line:&lt;167',</t>
-  </si>
-  <si>
-    <t>mths_since_earliest_cr_line:167-250',</t>
-  </si>
-  <si>
-    <t>mths_since_earliest_cr_line:251-355',</t>
-  </si>
-  <si>
-    <t>mths_since_earliest_cr_line:356-417',</t>
-  </si>
-  <si>
-    <t>mths_since_earliest_cr_line:&gt;417',</t>
-  </si>
-  <si>
-    <t>delinq_2yrs:0',</t>
-  </si>
-  <si>
-    <t>delinq_2yrs:1-3',</t>
-  </si>
-  <si>
-    <t>delinq_2yrs:&gt;=4',</t>
-  </si>
-  <si>
-    <t>inq_last_6mths:0',</t>
-  </si>
-  <si>
-    <t>inq_last_6mths:1-2',</t>
-  </si>
-  <si>
-    <t>inq_last_6mths:3-6',</t>
-  </si>
-  <si>
-    <t>inq_last_6mths:&gt;6',</t>
-  </si>
-  <si>
-    <t>open_acc:0-3',</t>
-  </si>
-  <si>
-    <t>open_acc:4-12',</t>
-  </si>
-  <si>
-    <t>open_acc:13-17',</t>
-  </si>
-  <si>
-    <t>open_acc:18-22',</t>
-  </si>
-  <si>
-    <t>open_acc:23-25',</t>
-  </si>
-  <si>
-    <t>open_acc:26-30',</t>
-  </si>
-  <si>
-    <t>open_acc:&gt;=31',</t>
-  </si>
-  <si>
-    <t>pub_rec:0',</t>
-  </si>
-  <si>
-    <t>pub_rec:1-2',</t>
-  </si>
-  <si>
-    <t>pub_rec:&gt;=3',</t>
-  </si>
-  <si>
-    <t>total_acc:&lt;=27',</t>
-  </si>
-  <si>
-    <t>total_acc:28-51',</t>
-  </si>
-  <si>
-    <t>total_acc:&gt;=52',</t>
-  </si>
-  <si>
-    <t>acc_now_delinq:0',</t>
-  </si>
-  <si>
-    <t>acc_now_delinq:&gt;=1',</t>
-  </si>
-  <si>
-    <t>total_rev_hi_lim:&lt;=10K',</t>
-  </si>
-  <si>
-    <t>total_rev_hi_lim:10K-20K',</t>
-  </si>
-  <si>
-    <t>total_rev_hi_lim:20K-30K',</t>
-  </si>
-  <si>
-    <t>total_rev_hi_lim:30K-40K',</t>
-  </si>
-  <si>
-    <t>total_rev_hi_lim:40K-55K',</t>
-  </si>
-  <si>
-    <t>total_rev_hi_lim:55K-95K',</t>
-  </si>
-  <si>
-    <t>total_rev_hi_lim:&gt;95K',</t>
-  </si>
-  <si>
-    <t>annual_inc:&lt;20K',</t>
-  </si>
-  <si>
-    <t>annual_inc:20K-30K',</t>
-  </si>
-  <si>
-    <t>annual_inc:30K-40K',</t>
-  </si>
-  <si>
-    <t>annual_inc:40K-50K',</t>
-  </si>
-  <si>
-    <t>annual_inc:50K-60K',</t>
-  </si>
-  <si>
-    <t>annual_inc:60K-70K',</t>
-  </si>
-  <si>
-    <t>annual_inc:70K-80K',</t>
-  </si>
-  <si>
-    <t>annual_inc:80K-90K',</t>
-  </si>
-  <si>
-    <t>annual_inc:90K-100K',</t>
-  </si>
-  <si>
-    <t>annual_inc:100K-120K',</t>
-  </si>
-  <si>
-    <t>annual_inc:120K-140K',</t>
-  </si>
-  <si>
-    <t>annual_inc:&gt;140K',</t>
-  </si>
-  <si>
-    <t>mths_since_last_delinq:Missing',</t>
-  </si>
-  <si>
-    <t>mths_since_last_delinq:0-20',</t>
-  </si>
-  <si>
-    <t>mths_since_last_delinq:20-30',</t>
-  </si>
-  <si>
-    <t>mths_since_last_delinq:50-80',</t>
-  </si>
-  <si>
-    <t>mths_since_last_delinq:&gt;=81',</t>
-  </si>
-  <si>
-    <t>mths_since_last_record:Missing',</t>
-  </si>
-  <si>
-    <t>mths_since_last_record:0-37',</t>
-  </si>
-  <si>
-    <t>mths_since_last_record:37-60',</t>
-  </si>
-  <si>
-    <t>mths_since_last_record:61-90',</t>
-  </si>
-  <si>
     <t>mths_since_last_record:&gt;90',</t>
+  </si>
+  <si>
+    <t>'addr_state:LA_AR_AL_MS_OK_NM_SD_NV_IA',</t>
+  </si>
+  <si>
+    <t>'addr_state:FL',</t>
+  </si>
+  <si>
+    <t>'addr_state:NY',</t>
+  </si>
+  <si>
+    <t>'addr_state:CA',</t>
+  </si>
+  <si>
+    <t>'addr_state:TX',</t>
+  </si>
+  <si>
+    <t>'purpose:educ__ren_en__sm_b__mov',</t>
+  </si>
+  <si>
+    <t>'purpose:med__oth__house__wedd',</t>
+  </si>
+  <si>
+    <t>'purpose:major_purch__vacation__home_impr__car',</t>
+  </si>
+  <si>
+    <t>'term:60',</t>
+  </si>
+  <si>
+    <t>'term:36',</t>
+  </si>
+  <si>
+    <t>'emp_length:0',</t>
+  </si>
+  <si>
+    <t>'emp_length:1',</t>
+  </si>
+  <si>
+    <t>'emp_length:2-6',</t>
+  </si>
+  <si>
+    <t>'emp_length:7-9',</t>
+  </si>
+  <si>
+    <t>'emp_length:10',</t>
+  </si>
+  <si>
+    <t>'mths_since_issue_d:&lt;30',</t>
+  </si>
+  <si>
+    <t>'mths_since_issue_d:30-33',</t>
+  </si>
+  <si>
+    <t>'mths_since_issue_d:33-40',</t>
+  </si>
+  <si>
+    <t>'mths_since_issue_d:41-46',</t>
+  </si>
+  <si>
+    <t>'mths_since_issue_d:46-52',</t>
+  </si>
+  <si>
+    <t>'mths_since_issue_d:53-64',</t>
+  </si>
+  <si>
+    <t>'mths_since_issue_d:65-84',</t>
+  </si>
+  <si>
+    <t>'int_rate:&lt;8.392',</t>
+  </si>
+  <si>
+    <t>'int_rate:8.392-11.987',</t>
+  </si>
+  <si>
+    <t>'int_rate:11.987-15.582',</t>
+  </si>
+  <si>
+    <t>'int_rate:15.582-19.177',</t>
+  </si>
+  <si>
+    <t>'int_rate:&gt;19.177',</t>
+  </si>
+  <si>
+    <t>'mths_since_earliest_cr_line:&lt;167',</t>
+  </si>
+  <si>
+    <t>'mths_since_earliest_cr_line:167-250',</t>
+  </si>
+  <si>
+    <t>'mths_since_earliest_cr_line:251-355',</t>
+  </si>
+  <si>
+    <t>'mths_since_earliest_cr_line:356-417',</t>
+  </si>
+  <si>
+    <t>'mths_since_earliest_cr_line:&gt;417',</t>
+  </si>
+  <si>
+    <t>'delinq_2yrs:0',</t>
+  </si>
+  <si>
+    <t>'delinq_2yrs:1-3',</t>
+  </si>
+  <si>
+    <t>'delinq_2yrs:&gt;=4',</t>
+  </si>
+  <si>
+    <t>'inq_last_6mths:0',</t>
+  </si>
+  <si>
+    <t>'inq_last_6mths:1-2',</t>
+  </si>
+  <si>
+    <t>'inq_last_6mths:3-6',</t>
+  </si>
+  <si>
+    <t>'inq_last_6mths:&gt;6',</t>
+  </si>
+  <si>
+    <t>'open_acc:0-3',</t>
+  </si>
+  <si>
+    <t>'open_acc:4-12',</t>
+  </si>
+  <si>
+    <t>'open_acc:13-17',</t>
+  </si>
+  <si>
+    <t>'open_acc:18-22',</t>
+  </si>
+  <si>
+    <t>'open_acc:23-25',</t>
+  </si>
+  <si>
+    <t>'open_acc:26-30',</t>
+  </si>
+  <si>
+    <t>'open_acc:&gt;=31',</t>
+  </si>
+  <si>
+    <t>'pub_rec:0',</t>
+  </si>
+  <si>
+    <t>'pub_rec:1-2',</t>
+  </si>
+  <si>
+    <t>'pub_rec:&gt;=3',</t>
+  </si>
+  <si>
+    <t>'total_acc:&lt;=27',</t>
+  </si>
+  <si>
+    <t>'total_acc:28-51',</t>
+  </si>
+  <si>
+    <t>'total_acc:&gt;=52',</t>
+  </si>
+  <si>
+    <t>'acc_now_delinq:0',</t>
+  </si>
+  <si>
+    <t>'acc_now_delinq:&gt;=1',</t>
+  </si>
+  <si>
+    <t>'total_rev_hi_lim:&lt;=10K',</t>
+  </si>
+  <si>
+    <t>'total_rev_hi_lim:10K-20K',</t>
+  </si>
+  <si>
+    <t>'total_rev_hi_lim:20K-30K',</t>
+  </si>
+  <si>
+    <t>'total_rev_hi_lim:30K-40K',</t>
+  </si>
+  <si>
+    <t>'total_rev_hi_lim:40K-55K',</t>
+  </si>
+  <si>
+    <t>'total_rev_hi_lim:55K-95K',</t>
+  </si>
+  <si>
+    <t>'total_rev_hi_lim:&gt;95K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:&lt;20K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:20K-30K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:30K-40K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:40K-50K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:50K-60K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:60K-70K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:70K-80K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:80K-90K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:90K-100K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:100K-120K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:120K-140K',</t>
+  </si>
+  <si>
+    <t>'annual_inc:&gt;140K',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_delinq:Missing',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_delinq:0-20',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_delinq:20-30',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_delinq:50-80',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_delinq:&gt;=81',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_record:Missing',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_record:0-37',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_record:37-60',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_record:61-90',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_record:&gt;90'</t>
+  </si>
+  <si>
+    <t>'grade:D', 'grade:E', 'grade:F', 'grade:G','home_ownership:RENT_OTHER_NONE_ANY',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'addr_state:MO_NC_MD_IN_AK_NE_NJ', </t>
+  </si>
+  <si>
+    <t>'addr_state:MI_PA_MN_TN_VA_HI',</t>
+  </si>
+  <si>
+    <t>'addr_state:OH_WI_AZ_MA_UT_DE',</t>
+  </si>
+  <si>
+    <t>'addr_state:GA_IL_WY_RI',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'addr_state:MT_WA_SC_OR_ND_KS_CT_CO_NH_WV_DC_VT_ID_ME', </t>
+  </si>
+  <si>
+    <t>'mths_since_issue_d:&gt;84',</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,82 +703,82 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -788,417 +788,417 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
